--- a/biology/Botanique/Encyclia/Encyclia.xlsx
+++ b/biology/Botanique/Encyclia/Encyclia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Encyclia est un genre de la famille des Orchidacées distinct des Epidendrum depuis 1961 grâce aux travaux de Robert L. Dressler sur les orchidées. 172 espèces originaires d'Amérique centrale et que l'on trouve depuis le niveau de la mer et jusqu'à 2000 mètres d'altitude.
 C'est en 1828 que la première orchidée de ce genre fut prélevée à Rio de Janeiro par William Harrison et envoyée à Sir William Jackson Hooker pour classification. Il s'agissait d' Encyclia viridiflora qui est une espèce aujourd'hui disparue mais dont deux spécimens sont conservés à l'herbarium de Lindley dans les jardins botaniques royaux de Kew. 
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Encyclia acicularis (Bateman ex  Lindl.)  Schltr. 1914. Cf. Encyclia bractescens.
@@ -627,7 +641,7 @@
 Encyclia ibanezii Archila &amp;  W.E.Higgins 2009.
 Encyclia inaguensis Nash ex  Britton &amp;  Millsp. 1920.
 Encyclia incumbens (Lindl.) Mabb. 1984.
-Encyclia inopinata Leopardi, Carnevali &amp; G.A.Romero, 2016[1].
+Encyclia inopinata Leopardi, Carnevali &amp; G.A.Romero, 2016.
 Encyclia insidiosa (Rchb.f.)  Schltr. 1920. Cf. Encyclia diota.
 Encyclia ionosma (Lindl.)  Schltr. 1914.
 Encyclia isochila (Rchb.f.)  Dod 1986.
